--- a/sbe_vallib/validation/table/pipelines/Config_31.xlsx
+++ b/sbe_vallib/validation/table/pipelines/Config_31.xlsx
@@ -7,11 +7,11 @@
     <sheet state="visible" name="agg_config" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_95FFDCEF_0F24_4BD6_8A17_7ECA71F78361_.wvu.FilterData">tests_config!$A$1:$AD$1000</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_14A2CAD9_9538_4B1B_A607_B8C1E3BE611A_.wvu.FilterData">tests_config!$A$1:$AD$1000</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{95FFDCEF-0F24-4BD6-8A17-7ECA71F78361}" name="Фильтр 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{14A2CAD9-9538-4B1B-A607-B8C1E3BE611A}" name="Фильтр 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -86,7 +86,7 @@
  "rounding_precision_bins": 5,
  "discr_uniq_val": 10,
  "discr_val_share": 0.8,
- "threshold": (0.1, 0.3)}</t>
+ "threshold": (0.2, 10000000)}</t>
   </si>
   <si>
     <t>sbe_vallib.validation.table.general_tests.model_quality.test_ci</t>
@@ -2040,7 +2040,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{95FFDCEF-0F24-4BD6-8A17-7ECA71F78361}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{14A2CAD9-9538-4B1B-A607-B8C1E3BE611A}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$AD$1000"/>
     </customSheetView>
   </customSheetViews>
